--- a/F-2_配布資料/04_機能一覧_F2.xlsx
+++ b/F-2_配布資料/04_機能一覧_F2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo7\F-2\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CA8C534-CA26-4DA4-9F82-24A3749F3681}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F41DDC40-B93F-4B6A-A736-A89A0C4C3709}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="75">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -571,13 +571,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>髙見澤響</t>
-    <rPh sb="0" eb="4">
-      <t>タカミザワヒビキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>川田怜奈</t>
     <rPh sb="0" eb="2">
       <t>カワダ</t>
@@ -681,12 +674,22 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>優先度低め</t>
+    <t>未完成</t>
+    <rPh sb="0" eb="3">
+      <t>ミカンセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>優先度低め、未完成</t>
     <rPh sb="0" eb="3">
       <t>ユウセンド</t>
     </rPh>
     <rPh sb="3" eb="4">
       <t>ヒク</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>ミカンセイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -838,6 +841,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -847,25 +865,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1234,10 +1237,10 @@
       <c r="G2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="I2" s="12"/>
+      <c r="H2" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="I2" s="17"/>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.15">
       <c r="E3" s="4" t="s">
@@ -1249,28 +1252,28 @@
       <c r="G3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="13">
+      <c r="H3" s="18">
         <v>44718</v>
       </c>
-      <c r="I3" s="14"/>
+      <c r="I3" s="19"/>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.15">
       <c r="G4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="14" t="s">
+      <c r="H4" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="I4" s="14"/>
+      <c r="I4" s="19"/>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.15">
       <c r="G5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="13">
-        <v>44719</v>
-      </c>
-      <c r="I5" s="14"/>
+      <c r="H5" s="18">
+        <v>44739</v>
+      </c>
+      <c r="I5" s="19"/>
     </row>
     <row r="6" spans="2:11" ht="21" x14ac:dyDescent="0.15">
       <c r="B6" s="6" t="s">
@@ -1304,10 +1307,10 @@
       <c r="I7" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="J7" s="17" t="s">
+      <c r="J7" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="K7" s="18"/>
+      <c r="K7" s="21"/>
     </row>
     <row r="8" spans="2:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="2">
@@ -1332,10 +1335,10 @@
       <c r="I8" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="J8" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="K8" s="16"/>
+      <c r="J8" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="K8" s="15"/>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B9" s="2">
@@ -1358,8 +1361,10 @@
       <c r="I9" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="J9" s="19"/>
-      <c r="K9" s="20"/>
+      <c r="J9" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="K9" s="13"/>
     </row>
     <row r="10" spans="2:11" ht="40.5" x14ac:dyDescent="0.15">
       <c r="B10" s="2">
@@ -1386,8 +1391,8 @@
       <c r="I10" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="J10" s="19"/>
-      <c r="K10" s="20"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="13"/>
     </row>
     <row r="11" spans="2:11" ht="54" x14ac:dyDescent="0.15">
       <c r="B11" s="2">
@@ -1409,13 +1414,13 @@
         <v>23</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="J11" s="19"/>
-      <c r="K11" s="20"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="13"/>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B12" s="2">
@@ -1442,8 +1447,8 @@
       <c r="I12" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="J12" s="19"/>
-      <c r="K12" s="20"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="13"/>
     </row>
     <row r="13" spans="2:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="2">
@@ -1470,10 +1475,10 @@
       <c r="I13" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="J13" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="K13" s="16"/>
+      <c r="J13" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="K13" s="15"/>
     </row>
     <row r="14" spans="2:11" ht="40.5" x14ac:dyDescent="0.15">
       <c r="B14" s="2">
@@ -1500,8 +1505,8 @@
       <c r="I14" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="J14" s="19"/>
-      <c r="K14" s="20"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="13"/>
     </row>
     <row r="15" spans="2:11" ht="27" x14ac:dyDescent="0.15">
       <c r="B15" s="2">
@@ -1528,8 +1533,8 @@
       <c r="I15" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="J15" s="19"/>
-      <c r="K15" s="20"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="13"/>
     </row>
     <row r="16" spans="2:11" ht="27" x14ac:dyDescent="0.15">
       <c r="B16" s="2">
@@ -1556,8 +1561,8 @@
       <c r="I16" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="J16" s="19"/>
-      <c r="K16" s="20"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="13"/>
     </row>
     <row r="17" spans="2:11" ht="27" x14ac:dyDescent="0.15">
       <c r="B17" s="2">
@@ -1584,8 +1589,8 @@
       <c r="I17" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="J17" s="19"/>
-      <c r="K17" s="20"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="13"/>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B18" s="2">
@@ -1612,10 +1617,10 @@
       <c r="I18" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="J18" s="21" t="s">
+      <c r="J18" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="K18" s="16"/>
+      <c r="K18" s="15"/>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B19" s="2">
@@ -1642,10 +1647,10 @@
       <c r="I19" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="J19" s="21" t="s">
+      <c r="J19" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="K19" s="16"/>
+      <c r="K19" s="15"/>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B20" s="2">
@@ -1658,8 +1663,8 @@
       <c r="G20" s="2"/>
       <c r="H20" s="3"/>
       <c r="I20" s="2"/>
-      <c r="J20" s="19"/>
-      <c r="K20" s="20"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="13"/>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B21" s="2">
@@ -1672,8 +1677,8 @@
       <c r="G21" s="2"/>
       <c r="H21" s="3"/>
       <c r="I21" s="2"/>
-      <c r="J21" s="19"/>
-      <c r="K21" s="20"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="13"/>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B22" s="2">
@@ -1686,8 +1691,8 @@
       <c r="G22" s="2"/>
       <c r="H22" s="3"/>
       <c r="I22" s="2"/>
-      <c r="J22" s="19"/>
-      <c r="K22" s="20"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="13"/>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B23" s="2">
@@ -1700,8 +1705,8 @@
       <c r="G23" s="2"/>
       <c r="H23" s="3"/>
       <c r="I23" s="2"/>
-      <c r="J23" s="19"/>
-      <c r="K23" s="20"/>
+      <c r="J23" s="12"/>
+      <c r="K23" s="13"/>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B24" s="2">
@@ -1714,8 +1719,8 @@
       <c r="G24" s="2"/>
       <c r="H24" s="3"/>
       <c r="I24" s="2"/>
-      <c r="J24" s="19"/>
-      <c r="K24" s="20"/>
+      <c r="J24" s="12"/>
+      <c r="K24" s="13"/>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B25" s="2">
@@ -1728,8 +1733,8 @@
       <c r="G25" s="2"/>
       <c r="H25" s="3"/>
       <c r="I25" s="2"/>
-      <c r="J25" s="19"/>
-      <c r="K25" s="20"/>
+      <c r="J25" s="12"/>
+      <c r="K25" s="13"/>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B26" s="2">
@@ -1742,8 +1747,8 @@
       <c r="G26" s="2"/>
       <c r="H26" s="3"/>
       <c r="I26" s="2"/>
-      <c r="J26" s="19"/>
-      <c r="K26" s="20"/>
+      <c r="J26" s="12"/>
+      <c r="K26" s="13"/>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B27" s="2">
@@ -1756,8 +1761,8 @@
       <c r="G27" s="2"/>
       <c r="H27" s="3"/>
       <c r="I27" s="2"/>
-      <c r="J27" s="19"/>
-      <c r="K27" s="20"/>
+      <c r="J27" s="12"/>
+      <c r="K27" s="13"/>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B28" s="2">
@@ -1770,8 +1775,8 @@
       <c r="G28" s="2"/>
       <c r="H28" s="3"/>
       <c r="I28" s="2"/>
-      <c r="J28" s="19"/>
-      <c r="K28" s="20"/>
+      <c r="J28" s="12"/>
+      <c r="K28" s="13"/>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B29" s="2">
@@ -1784,8 +1789,8 @@
       <c r="G29" s="2"/>
       <c r="H29" s="3"/>
       <c r="I29" s="2"/>
-      <c r="J29" s="19"/>
-      <c r="K29" s="20"/>
+      <c r="J29" s="12"/>
+      <c r="K29" s="13"/>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B30" s="2">
@@ -1798,8 +1803,8 @@
       <c r="G30" s="2"/>
       <c r="H30" s="3"/>
       <c r="I30" s="2"/>
-      <c r="J30" s="19"/>
-      <c r="K30" s="20"/>
+      <c r="J30" s="12"/>
+      <c r="K30" s="13"/>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B31" s="2">
@@ -1812,8 +1817,8 @@
       <c r="G31" s="2"/>
       <c r="H31" s="3"/>
       <c r="I31" s="2"/>
-      <c r="J31" s="19"/>
-      <c r="K31" s="20"/>
+      <c r="J31" s="12"/>
+      <c r="K31" s="13"/>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B32" s="2">
@@ -1826,8 +1831,8 @@
       <c r="G32" s="2"/>
       <c r="H32" s="3"/>
       <c r="I32" s="2"/>
-      <c r="J32" s="19"/>
-      <c r="K32" s="20"/>
+      <c r="J32" s="12"/>
+      <c r="K32" s="13"/>
     </row>
     <row r="33" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B33" s="2">
@@ -1840,8 +1845,8 @@
       <c r="G33" s="2"/>
       <c r="H33" s="3"/>
       <c r="I33" s="2"/>
-      <c r="J33" s="19"/>
-      <c r="K33" s="20"/>
+      <c r="J33" s="12"/>
+      <c r="K33" s="13"/>
     </row>
     <row r="34" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B34" s="2">
@@ -1854,8 +1859,8 @@
       <c r="G34" s="2"/>
       <c r="H34" s="3"/>
       <c r="I34" s="2"/>
-      <c r="J34" s="19"/>
-      <c r="K34" s="20"/>
+      <c r="J34" s="12"/>
+      <c r="K34" s="13"/>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B35" s="2">
@@ -1868,8 +1873,8 @@
       <c r="G35" s="2"/>
       <c r="H35" s="3"/>
       <c r="I35" s="2"/>
-      <c r="J35" s="19"/>
-      <c r="K35" s="20"/>
+      <c r="J35" s="12"/>
+      <c r="K35" s="13"/>
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.15">
       <c r="C36" s="2"/>
@@ -1879,31 +1884,17 @@
       <c r="G36" s="2"/>
       <c r="H36" s="3"/>
       <c r="I36" s="2"/>
-      <c r="J36" s="19"/>
-      <c r="K36" s="20"/>
+      <c r="J36" s="12"/>
+      <c r="K36" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="J36:K36"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="J7:K7"/>
     <mergeCell ref="J13:K13"/>
     <mergeCell ref="J14:K14"/>
     <mergeCell ref="J15:K15"/>
@@ -1912,12 +1903,26 @@
     <mergeCell ref="J10:K10"/>
     <mergeCell ref="J11:K11"/>
     <mergeCell ref="J12:K12"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="J36:K36"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
